--- a/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_224.xlsx
+++ b/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_224.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,403 +488,404 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_185</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_149</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.07334525939177103</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['D:maj/F#', 'A:7', 'D:maj']]</t>
-        </is>
+          <t>schubert-winterreise_73</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_197</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.3726708074534161</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['C:maj/G', 'G:7', 'C:maj']]</t>
+          <t>[['G:maj/D', 'D:7', 'G:maj', 'G:min']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(39.8, 45.4)]</t>
+          <t>[['F#:maj/A#', 'C#:7', 'F#:maj', 'F#:min']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(32.44, 34.8)]</t>
+          <t>[('0:01:06.920000', '0:01:10.300000')]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+          <t>[('0:00:19.720000', '0:00:23.080000')]</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>isophonics_205</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_71</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.0572717806317251</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['A:min', 'A:min/b7', 'A:min/6']]</t>
-        </is>
+          <t>schubert-winterreise_165</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_176</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>1</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['C:min', 'C:min', 'C:min/G']]</t>
+          <t>[['A#:min', 'C:hdim7/D#', 'F:7', 'A#:min', 'A#:min', 'C:hdim7/D#', 'F:7', 'A#:min', 'A:dim7', 'A#:min', 'A:dim7', 'F:maj/C', 'A#:min/C#', 'G#:maj/C', 'F#:maj/A#', 'C#:maj/G#', 'F#:maj', 'C#:maj/G#', 'G#:7', 'C#:maj', 'F#:maj/A#', 'F:min/C', 'C:7', 'F:min', 'E:dim7/G', 'F:min/G#', 'F:(3,5,b7,b9)/A', 'A#:min', 'A#:(3,5,b7,b9)', 'D#:min', 'A#:min/F', 'F:(3,5,b7,b9)', 'A:dim7', 'C:hdim7/D#', 'A:dim7', 'C:hdim7/D#', 'F:(3,5,b7,b9)', 'A#:min', 'A#:(3,5,b7,b9)/D', 'D#:min', 'A#:min/F', 'F:(3,5,b7,b9)', 'A#:min']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(0.06, 6.451609)]</t>
+          <t>[['A:min', 'B:hdim7/D', 'E:7', 'A:min', 'A:min', 'B:hdim7/D', 'E:7', 'A:min', 'G#:dim7', 'A:min', 'G#:dim7', 'E:maj/B', 'A:min/C', 'G:maj/B', 'F:maj/A', 'C:maj/G', 'F:maj', 'C:maj/G', 'G:7', 'C:maj', 'F:maj/A', 'E:min/B', 'B:7', 'E:min', 'D#:dim7/F#', 'E:min/G', 'E:(3,5,b7,b9)/G#', 'A:min', 'A:(3,5,b7,b9)', 'D:min', 'A:min/E', 'E:(3,5,b7,b9)', 'G#:dim7', 'B:hdim7/D', 'G#:dim7', 'B:hdim7/D', 'E:(3,5,b7,b9)', 'A:min', 'A:(3,5,b7,b9)/C#', 'D:min', 'A:min/E', 'E:(3,5,b7,b9)', 'A:min']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(31.8, 48.54)]</t>
+          <t>[('0:00:09.700000', '0:01:02.320000')]</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>spotify:track:389QX9Q1eUOEZ19vtzzI9O</t>
+          <t>[('0:00:10.100000', '0:01:03.440000')]</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_205</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_28</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.2657342657342657</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
-        </is>
+          <t>schubert-winterreise_96</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_202</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.3809523809523809</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
+          <t>[['A#:maj/D', 'F:maj/C', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(70.06, 87.32)]</t>
+          <t>[['A#:maj', 'F:maj/C', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(15.3, 19.72)]</t>
+          <t>[('0:01:06.880000', '0:01:14.940000')]</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
+          <t>[('0:01:02.280000', '0:01:04.320000')]</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>isophonics_261</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_6</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.1762820512820513</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['C:min', 'D:7', 'G:min', 'C:min']]</t>
-        </is>
+          <t>isophonics_15</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>isophonics_58</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.5238095238095238</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['E:min/B', 'F#:7/B', 'B:min', 'E:min/B']]</t>
+          <t>[['F', 'C', 'G', 'F', 'C']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(59.437845, 66.566371)]</t>
+          <t>[['F', 'C', 'G', 'F', 'C']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(22.94, 32.42)]</t>
+          <t>[('0:01:15.880793', '0:01:44.302018')]</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>spotify:track:2B4Y9u4ERAFiMo13XPJyGP</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+          <t>[('0:00:41.895260', '0:00:59.802639')]</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_19</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_138</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.2697674418604651</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:7', 'D:min', 'D:min', 'A:7', 'D:min']]</t>
-        </is>
+          <t>schubert-winterreise_72</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_198</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.4166666666666667</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['A:min/E', 'E:7', 'A:min', 'A:min/E', 'E:7', 'A:min']]</t>
+          <t>[['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(7.14, 30.18)]</t>
+          <t>[['E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(37.76, 53.02)]</t>
+          <t>[('0:00:00.380000', '0:00:08.900000')]</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
+          <t>[('0:00:25.720000', '0:00:45.260000')]</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_65</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_175</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.2666666666666667</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['G#:min', 'D#:min', 'A#:7', 'D#:min']]</t>
-        </is>
+          <t>schubert-winterreise_197</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>isophonics_223</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.1229096989966555</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:min', 'E:7', 'A:min']]</t>
+          <t>[['F#:maj', 'C#:maj', 'F#:maj']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(7.6, 13.86)]</t>
+          <t>[['A', 'E', 'A']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(15.94, 24.9)]</t>
+          <t>[('0:00:42.900000', '0:00:45.160000')]</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>[('0:00:00.440395', '0:00:07.142059')]</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>spotify:track:3KfbEIOC7YIv90FIfNSZpo</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_106</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_156</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.1652173913043478</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
-        </is>
+          <t>schubert-winterreise_207</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_153</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.5079365079365079</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['F#:min', 'C#:7', 'F#:min']]</t>
+          <t>[['A#:maj', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(39.84, 47.28)]</t>
+          <t>[['C:maj', 'G:maj/D', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(3.32, 6.3)]</t>
+          <t>[('0:00:05.800000', '0:00:15.900000')]</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>[('0:00:59.260000', '0:01:01.360000')]</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>isophonics_35</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_157</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.1252173913043478</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['G:7', 'C', 'C/7']]</t>
-        </is>
+          <t>schubert-winterreise_207</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_214</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>1</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:maj', 'F:maj/A']]</t>
+          <t>[['F:maj', 'C:maj', 'F:7', 'A#:maj', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj'], ['A:7', 'D:min', 'C:7', 'F:maj', 'A:maj/C#', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(12.851927, 16.810929)]</t>
+          <t>[['G:maj', 'D:maj', 'G:7', 'C:maj', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj'], ['B:7', 'E:min', 'D:7', 'G:maj', 'B:maj/D#', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(17.36, 19.54)]</t>
+          <t>[('0:00:00.220000', '0:00:20.820000'), ('0:00:55.840000', '0:01:17.800000')]</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>spotify:track:1dxbAIfCASqv6jix2R1Taj</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>[('0:00:00.620000', '0:00:26.600000'), ('0:01:10.160000', '0:01:36.100000')]</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_79</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_0</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.1846153846153846</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A:min', 'D:min', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_213</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_168</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.1384615384615385</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['F#:7/B', 'B:min', 'E:min/B', 'B:min']]</t>
+          <t>[['A:min', 'E:7/G#', 'A:min']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(53.28, 65.12)]</t>
+          <t>[['A#:min/F', 'F:7', 'A#:min']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(23.02, 32.58)]</t>
+          <t>[('0:00:42.940000', '0:00:51.080000')]</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+          <t>[('0:01:14.500000', '0:01:20.420000')]</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
+        <is>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
         <is>
           <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
         </is>
@@ -888,315 +894,292 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_0</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_110</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.1384615384615385</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['B:min/F#', 'F#:7', 'B:min']]</t>
-        </is>
+          <t>schubert-winterreise_56</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_42</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>1</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
+          <t>[['A:(3,5,b7,b9)', 'D:min', 'F#:dim7'], ['A#:maj', 'F:(3,5,b7,b9)', 'A#:maj'], ['G#:dim7', 'A:maj', 'D:min']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(74.1, 80.04)]</t>
+          <t>[['G:(3,5,b7,b9)', 'C:min', 'E:dim7'], ['G#:maj', 'D#:(3,5,b7,b9)', 'G#:maj'], ['F#:dim7', 'G:maj', 'C:min']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(37.36, 44.66)]</t>
+          <t>[('0:00:12.400000', '0:00:16.560000'), ('0:00:21.880000', '0:00:24.860000'), ('0:00:17.200000', '0:00:18.680000')]</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
+          <t>[('0:00:11.760000', '0:00:15.640000'), ('0:00:20.540000', '0:00:23.160000'), ('0:00:16.240000', '0:00:17.660000')]</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_106</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_203</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.1230769230769231</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
-        </is>
+          <t>schubert-winterreise_175</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_163</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0.2666666666666667</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['G:min/D', 'D:7', 'G:min']]</t>
+          <t>[['D:min', 'A:min', 'E:7', 'A:min']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(39.84, 47.28)]</t>
+          <t>[['A#:min', 'F:min', 'C:7', 'F:min']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(43.18, 45.1)]</t>
+          <t>[('0:00:15.940000', '0:00:24.900000')]</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+          <t>[('0:00:06.280000', '0:00:12.060000')]</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_62</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_106</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>1</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['G:maj', 'D:7/F#', 'G:7/F', 'E:7', 'F:maj', 'A#:min/F', 'E:dim7', 'F:7', 'A#:maj/F', 'F:7', 'A#:maj/F', 'B:(b5,b7)/F', 'A:min/E', 'E:7', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_43</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_89</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0.1652173913043478</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['A:maj', 'E:7/G#', 'A:7/G', 'F#:7', 'G:maj', 'C:min/G', 'F#:dim7', 'G:7', 'C:maj/G', 'G:7', 'C:maj/G', 'C#:(b5,b7)/G', 'B:min/F#', 'F#:7', 'B:min']]</t>
+          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(84.92, 105.44)]</t>
+          <t>[['G:min', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(86.98, 111.2)]</t>
+          <t>[('0:00:41.320000', '0:00:48.940000')]</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
+          <t>[('0:00:04.160000', '0:00:06.700000')]</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
           <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
         </is>
       </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_43</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_173</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.1652173913043478</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
-        </is>
+          <t>schubert-winterreise_188</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_5</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>0.1348837209302326</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['G:min', 'D:7', 'G:min']]</t>
+          <t>[['C:7', 'F:min/C', 'F:min']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(41.32, 48.94)]</t>
+          <t>[['E:7', 'A:min', 'A:min']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(2.58, 5.02)]</t>
+          <t>[('0:00:36.820000', '0:00:38.820000')]</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+          <t>[('0:00:13.600000', '0:00:17.780000')]</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_129</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_55</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.2461538461538462</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
-        </is>
+          <t>schubert-winterreise_102</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_147</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
+          <t>[['D:7', 'G:maj', 'G:maj', 'D:7/F#', 'B:7', 'E:min', 'G:maj/D', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(101.06, 102.38)]</t>
+          <t>[['E:7', 'A:maj', 'A:maj', 'E:7/G#', 'C#:7', 'F#:min', 'A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(66.98, 83.84)]</t>
+          <t>[('0:00:06.740000', '0:00:21.540000')]</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>[('0:00:07.760000', '0:00:25.820000')]</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_146</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_7</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.07334525939177103</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['D:maj/F#', 'A:7', 'D:maj']]</t>
-        </is>
+          <t>schubert-winterreise_55</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_205</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['C:maj/G', 'G:7', 'C:maj']]</t>
+          <t>[['B:7', 'A:min/C', 'D:7', 'G:maj', 'G:maj', 'E:min', 'A:min/C', 'D:7', 'G:maj', 'C:maj/G', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'D:min/F', 'E:hdim7', 'D:min/F', 'E:(3,b5,b7)', 'D:min/F', 'D:min/F', 'G:7', 'C:min', 'D:(3,b5,b7)', 'C:min/D#', 'F:min/G#', 'G:hdim7', 'F:min/G#', 'G:(3,b5,b7)', 'F:min/G#', 'C:min/D#', 'G:min/D', 'D:7', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'G#:maj/C', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'D:7', 'G:min', 'G:maj', 'G:7/F', 'C:maj/E', 'G:maj/D', 'G:7/F', 'C:maj/E', 'G:maj/D', 'A:min7/C', 'D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B', 'C:min', 'G:min/A#', 'C:min', 'G:min/A#', 'A:hdim7/D#', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(38.62, 44.06)]</t>
+          <t>[['B:7', 'A:min/C', 'D:7', 'G:maj', 'G:maj', 'E:min', 'A:min/C', 'D:7', 'G:maj', 'C:maj/G', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'D:min/F', 'E:hdim7', 'D:min/F', 'E:(3,b5,b7)', 'D:min/F', 'D:min/F', 'G:7', 'C:min', 'D:(3,b5,b7)', 'C:min/D#', 'F:min/G#', 'G:hdim7', 'F:min/G#', 'G:(3,b5,b7)', 'F:min/G#', 'C:min/D#', 'G:min/D', 'D:7', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'G#:maj/C', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'D:7', 'G:min', 'G:maj', 'G:7/F', 'C:maj/E', 'G:maj/D', 'G:7/F', 'C:maj/E', 'G:maj/D', 'A:min7/C', 'D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B', 'C:min', 'G:min/A#', 'C:min', 'G:min/A#', 'A:hdim7/D#', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(32.98, 35.26)]</t>
+          <t>[('0:00:05.360000', '0:01:50.760000')]</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>[('0:00:05', '0:01:54.060000')]</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_89</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_157</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>1</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['G:min', 'C:min/G', 'G:min', 'D:7', 'G:min', 'G:min', 'A:min/C', 'D:maj', 'D:maj/A', 'A:7', 'D:maj', 'D:maj/A', 'A:7', 'D:maj', 'G:min', 'C#:dim7', 'D:maj', 'G:maj/B', 'D:7', 'G:maj', 'G:maj/B', 'D:7', 'G:maj']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['F:min', 'A#:min/F', 'F:min', 'C:7', 'F:min', 'F:min', 'G:min/A#', 'C:maj', 'C:maj/G', 'G:7', 'C:maj', 'C:maj/G', 'G:7', 'C:maj', 'F:min', 'B:dim7', 'C:maj', 'F:maj/A', 'C:7', 'F:maj', 'F:maj/A', 'C:7', 'F:maj']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(1.64, 23.8)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(0.3, 20.7)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
       </c>
     </row>
